--- a/biology/Botanique/Feretia/Feretia.xlsx
+++ b/biology/Botanique/Feretia/Feretia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Feretia est un genre de plantes à fleurs de la famille des Rubiacées, originaire d'Afrique intertropicale et australe.
 </t>
@@ -511,53 +523,53 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (28 mai 2022)[2] :
-Noms corrects
-Feretia aeruginescens Stapf, 1906
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (28 mai 2022) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Feretia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Feretia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms corrects</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Feretia aeruginescens Stapf, 1906
 Feretia apodanthera Delile, 1843
 Feretia apodanthera subsp. apodanthera Delile, 1843
 Feretia apodanthera subsp. keniensis Bridson, 1979
 Feretia apodanthera subsp. tanzaniensis Bridson, 1979
-Feretia virgata K.Schum, 1903
-Noms placés en synonymie
-Feretia apodanthera var. australis K. Schum, 1901[3].
-Feretia canthioides Hiern, 1877
-Feretia coffeoides A. Chevalier, 1912</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Feretia</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Feretia</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Feretia apodanthera</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Feretia apodanthera (synonyme : Feretia canthioides) est un arbuste atteignant deux ou trois mètres de hauteur et 10 cm de diamètre, à rameaux grêles et tortueux, souvent rougeâtres, à écorce lamellée, à feuilles souvent rougeâtres, de forme elliptique, ovale ou obovale. Ses fleurs sont blanches ou rosées, très parfumées. Il donne des baies pédonculées de 6 à 7 mm de diamètre
-[4]. Il pousse principalement dans les milieux de savane, de préférence sur les termitières[5].
-Il est connu en Afrique occidentale sous les noms de aur’theye (en arabe du Sénégal), a-tik a-yarâ ou a-titi a-yara’hon (en bassari), gingùrkùr (en bédik), tiôbi ou tiôbida (en peul du Sénégal), tiôbi ou tiôbida (chez les Toucouleurs ), dara sunk (en langues mandingues). Dans la médecine traditionnelle africaine, il est employé comme sédatif, pour les maux d'estomac, les piqûres venimeuses, etc.[6]. Chez les Haoussas, sous le nom de kuru kuru, il est employé en décoction contre la dysenterie, la gonorrhée féminine, la fatigue générale ; il passe pour rendre invulnérable aux morsures de serpents. Il est un des ingrédients (une vingtaine en tout) utilisés dans les cultes de possession où il protège contre les divinités Dogwa et Aljani Baki[7].
-</t>
+Feretia virgata K.Schum, 1903</t>
         </is>
       </c>
     </row>
@@ -582,12 +594,87 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms placés en synonymie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Feretia apodanthera var. australis K. Schum, 1901.
+Feretia canthioides Hiern, 1877
+Feretia coffeoides A. Chevalier, 1912</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Feretia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Feretia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Feretia apodanthera</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Feretia apodanthera (synonyme : Feretia canthioides) est un arbuste atteignant deux ou trois mètres de hauteur et 10 cm de diamètre, à rameaux grêles et tortueux, souvent rougeâtres, à écorce lamellée, à feuilles souvent rougeâtres, de forme elliptique, ovale ou obovale. Ses fleurs sont blanches ou rosées, très parfumées. Il donne des baies pédonculées de 6 à 7 mm de diamètre
+. Il pousse principalement dans les milieux de savane, de préférence sur les termitières.
+Il est connu en Afrique occidentale sous les noms de aur’theye (en arabe du Sénégal), a-tik a-yarâ ou a-titi a-yara’hon (en bassari), gingùrkùr (en bédik), tiôbi ou tiôbida (en peul du Sénégal), tiôbi ou tiôbida (chez les Toucouleurs ), dara sunk (en langues mandingues). Dans la médecine traditionnelle africaine, il est employé comme sédatif, pour les maux d'estomac, les piqûres venimeuses, etc.. Chez les Haoussas, sous le nom de kuru kuru, il est employé en décoction contre la dysenterie, la gonorrhée féminine, la fatigue générale ; il passe pour rendre invulnérable aux morsures de serpents. Il est un des ingrédients (une vingtaine en tout) utilisés dans les cultes de possession où il protège contre les divinités Dogwa et Aljani Baki.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Feretia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Feretia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Feretia aeruginescens</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Feretia aeruginescens est un arbuste ou buisson répandu dans les savanes de l'Afrique australe. Il pousse à moyenne altitude dans le bushveld de Namibie, Botswana et Zimbabwe, le long des rivières ou autour des sources et mares ; son état de conservation n'est pas connu. Il est désigné les noms de pink medlar (en anglais) ou pienkmispel (en afrikaans). Il a des rameaux duveteux, des fleurs blanches et rosées et des baies rouges[8],[9].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Feretia aeruginescens est un arbuste ou buisson répandu dans les savanes de l'Afrique australe. Il pousse à moyenne altitude dans le bushveld de Namibie, Botswana et Zimbabwe, le long des rivières ou autour des sources et mares ; son état de conservation n'est pas connu. Il est désigné les noms de pink medlar (en anglais) ou pienkmispel (en afrikaans). Il a des rameaux duveteux, des fleurs blanches et rosées et des baies rouges,.
 </t>
         </is>
       </c>
